--- a/Leerplanillacupos/output_260723.xlsx
+++ b/Leerplanillacupos/output_260723.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M461"/>
+  <dimension ref="A1:M499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20358,19 +20358,19 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>66440</v>
+        <v>72288</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ASP - M8A - ID</t>
+          <t>AR M7A ID</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>6455</v>
+        <v>3851</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+          <t xml:space="preserve"> Arquitectura de software</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -20380,20 +20380,22 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t xml:space="preserve">26 /  æ </t>
-        </is>
-      </c>
-      <c r="G444" t="inlineStr"/>
+          <t>31 / 31</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H444" t="n">
-        <v>26</v>
-      </c>
-      <c r="I444" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="I444" t="n">
+        <v>31</v>
       </c>
       <c r="J444" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr"/>
@@ -20401,42 +20403,44 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>66442</v>
+        <v>72289</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>ASP - N8A - ID</t>
+          <t>AR M7B ID</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>6455</v>
+        <v>3851</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+          <t xml:space="preserve"> Arquitectura de software</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 /  æ </t>
-        </is>
-      </c>
-      <c r="G445" t="inlineStr"/>
+          <t>30 / 30</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H445" t="n">
-        <v>19</v>
-      </c>
-      <c r="I445" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="I445" t="n">
+        <v>30</v>
       </c>
       <c r="J445" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr"/>
@@ -20444,42 +20448,44 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>66515</v>
+        <v>72156</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>AR - N7A - ID</t>
+          <t>D1 M4A AN</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3851</v>
+        <v>3924</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arquitectura de software</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t xml:space="preserve">20 /  æ </t>
-        </is>
-      </c>
-      <c r="G446" t="inlineStr"/>
+          <t>33 / 33</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H446" t="n">
-        <v>20</v>
-      </c>
-      <c r="I446" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="I446" t="n">
+        <v>33</v>
       </c>
       <c r="J446" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr"/>
@@ -20487,19 +20493,19 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>66444</v>
+        <v>72621</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>DPBT - M8A - ID</t>
+          <t>D1 M4B AN</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>7666</v>
+        <v>3924</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -20509,20 +20515,22 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t xml:space="preserve">26 /  æ </t>
-        </is>
-      </c>
-      <c r="G447" t="inlineStr"/>
+          <t>17 / 25</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H447" t="n">
-        <v>26</v>
-      </c>
-      <c r="I447" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="I447" t="n">
+        <v>25</v>
       </c>
       <c r="J447" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr"/>
@@ -20530,42 +20538,44 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>66445</v>
+        <v>72255</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>DPBT - N8A - ID</t>
+          <t>D1 M5A ID</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>7666</v>
+        <v>3924</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 /  æ </t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr"/>
+          <t>26 / 30</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H448" t="n">
-        <v>13</v>
-      </c>
-      <c r="I448" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="I448" t="n">
+        <v>30</v>
       </c>
       <c r="J448" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr"/>
@@ -20573,42 +20583,44 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>66441</v>
+        <v>72256</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>DCU - N8A - ID</t>
+          <t>D1 M5B ID</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>7667</v>
+        <v>3924</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño centrado en el usuario</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 /  æ </t>
-        </is>
-      </c>
-      <c r="G449" t="inlineStr"/>
+          <t>26 / 30</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H449" t="n">
-        <v>7</v>
-      </c>
-      <c r="I449" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="I449" t="n">
+        <v>30</v>
       </c>
       <c r="J449" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr"/>
@@ -20616,19 +20628,19 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>66499</v>
+        <v>72257</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>DA2 - M6A - ID</t>
+          <t>D1 M5C ID</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>6343</v>
+        <v>3924</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -20638,20 +20650,22 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t xml:space="preserve">25 /  æ </t>
-        </is>
-      </c>
-      <c r="G450" t="inlineStr"/>
+          <t>23 / 25</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H450" t="n">
+        <v>23</v>
+      </c>
+      <c r="I450" t="n">
         <v>25</v>
       </c>
-      <c r="I450" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
-      </c>
       <c r="J450" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr"/>
@@ -20659,19 +20673,19 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>66500</v>
+        <v>72258</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>DA2 - M6B - ID</t>
+          <t>D1 M5D ID</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>6343</v>
+        <v>3924</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -20681,20 +20695,22 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 /  æ </t>
-        </is>
-      </c>
-      <c r="G451" t="inlineStr"/>
+          <t>24 / 30</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H451" t="n">
-        <v>19</v>
-      </c>
-      <c r="I451" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="I451" t="n">
+        <v>30</v>
       </c>
       <c r="J451" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr"/>
@@ -20702,11 +20718,11 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>66501</v>
+        <v>72160</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>DA2 - M6C - ID</t>
+          <t>D2 M5A AN</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -20724,20 +20740,22 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 /  æ </t>
-        </is>
-      </c>
-      <c r="G452" t="inlineStr"/>
+          <t>25 / 30</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H452" t="n">
-        <v>18</v>
-      </c>
-      <c r="I452" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="I452" t="n">
+        <v>30</v>
       </c>
       <c r="J452" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr"/>
@@ -20745,11 +20763,11 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>66502</v>
+        <v>72164</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>DA2 - N6A - ID</t>
+          <t>D2 M5B AN // M6B - ID</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -20762,25 +20780,27 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t xml:space="preserve">21 /  æ </t>
-        </is>
-      </c>
-      <c r="G453" t="inlineStr"/>
+          <t>31 / 31</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H453" t="n">
-        <v>21</v>
-      </c>
-      <c r="I453" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="I453" t="n">
+        <v>31</v>
       </c>
       <c r="J453" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr"/>
@@ -20788,42 +20808,44 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>66495</v>
+        <v>72165</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>FIS - N4A - ID</t>
+          <t>D2 M6A ID</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>7669</v>
+        <v>6343</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 /  æ </t>
-        </is>
-      </c>
-      <c r="G454" t="inlineStr"/>
+          <t>35 / 35</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="I454" t="n">
+        <v>35</v>
       </c>
       <c r="J454" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr"/>
@@ -20831,42 +20853,44 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>66727</v>
+        <v>72140</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>HGGPY - N9A - ID</t>
+          <t>FIS M3A AN</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>5733</v>
+        <v>7669</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t xml:space="preserve">30 /  æ </t>
-        </is>
-      </c>
-      <c r="G455" t="inlineStr"/>
+          <t>25 / 30</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H455" t="n">
+        <v>25</v>
+      </c>
+      <c r="I455" t="n">
         <v>30</v>
       </c>
-      <c r="I455" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
-      </c>
       <c r="J455" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr"/>
@@ -20874,19 +20898,19 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>66507</v>
+        <v>72141</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ISA1 - M6A - ID</t>
+          <t>FIS M3B AN</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>7674</v>
+        <v>7669</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -20896,20 +20920,22 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t xml:space="preserve">24 /  æ </t>
-        </is>
-      </c>
-      <c r="G456" t="inlineStr"/>
+          <t>28 / 30</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H456" t="n">
-        <v>24</v>
-      </c>
-      <c r="I456" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="I456" t="n">
+        <v>30</v>
       </c>
       <c r="J456" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr"/>
@@ -20917,19 +20943,19 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>66508</v>
+        <v>72142</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ISA1 - M6B - ID</t>
+          <t>FIS M3C AN</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>7674</v>
+        <v>7669</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -20939,20 +20965,22 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t xml:space="preserve">21 /  æ </t>
-        </is>
-      </c>
-      <c r="G457" t="inlineStr"/>
+          <t>21 / 30</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H457" t="n">
         <v>21</v>
       </c>
-      <c r="I457" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+      <c r="I457" t="n">
+        <v>30</v>
       </c>
       <c r="J457" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr"/>
@@ -20960,19 +20988,19 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>66509</v>
+        <v>72251</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>ISA1 - M6C - ID</t>
+          <t>FIS M4A ID</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>7674</v>
+        <v>7669</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -20982,20 +21010,22 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t xml:space="preserve">16 /  æ </t>
-        </is>
-      </c>
-      <c r="G458" t="inlineStr"/>
+          <t>20 / 30</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H458" t="n">
-        <v>16</v>
-      </c>
-      <c r="I458" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="I458" t="n">
+        <v>30</v>
       </c>
       <c r="J458" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr"/>
@@ -21003,42 +21033,44 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>66510</v>
+        <v>72309</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ISA1 - N6A - ID</t>
+          <t>HGGPY M9A ID</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>7674</v>
+        <v>5733</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t xml:space="preserve">14 /  æ </t>
-        </is>
-      </c>
-      <c r="G459" t="inlineStr"/>
+          <t>25 / 30</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H459" t="n">
-        <v>14</v>
-      </c>
-      <c r="I459" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="I459" t="n">
+        <v>30</v>
       </c>
       <c r="J459" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr"/>
@@ -21046,42 +21078,44 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>66516</v>
+        <v>72176</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>ISA2 - N7A - ID</t>
+          <t>ISA1 M6A AN</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>7675</v>
+        <v>7674</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t xml:space="preserve">20 /  æ </t>
-        </is>
-      </c>
-      <c r="G460" t="inlineStr"/>
+          <t>13 / 30</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H460" t="n">
-        <v>20</v>
-      </c>
-      <c r="I460" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="I460" t="n">
+        <v>30</v>
       </c>
       <c r="J460" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr"/>
@@ -21089,19 +21123,19 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>66443</v>
+        <v>72280</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>IHC - M8A - ID</t>
+          <t>ISA1 M6A ID</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>7676</v>
+        <v>7674</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interacción humano-computadora</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -21111,24 +21145,1700 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t xml:space="preserve">25 /  æ </t>
-        </is>
-      </c>
-      <c r="G461" t="inlineStr"/>
+          <t>34 / 35</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H461" t="n">
-        <v>25</v>
-      </c>
-      <c r="I461" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="I461" t="n">
+        <v>35</v>
       </c>
       <c r="J461" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr"/>
       <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>72294</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>ISA2 M7A ID</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>7675</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>28 / 30</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H462" t="n">
+        <v>28</v>
+      </c>
+      <c r="I462" t="n">
+        <v>30</v>
+      </c>
+      <c r="J462" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>72295</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>ISA2 M7B ID</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>7675</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>29 / 30</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H463" t="n">
+        <v>29</v>
+      </c>
+      <c r="I463" t="n">
+        <v>30</v>
+      </c>
+      <c r="J463" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>72305</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>ASP N8A ID</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>6455</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>21 / 21</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H464" t="n">
+        <v>21</v>
+      </c>
+      <c r="I464" t="n">
+        <v>21</v>
+      </c>
+      <c r="J464" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>72398</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>ASP N8B ID</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>6455</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>23 / 23</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H465" t="n">
+        <v>23</v>
+      </c>
+      <c r="I465" t="n">
+        <v>23</v>
+      </c>
+      <c r="J465" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>72290</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>AR N7A ID</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>3851</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arquitectura de software</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>26 / 32</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H466" t="n">
+        <v>26</v>
+      </c>
+      <c r="I466" t="n">
+        <v>32</v>
+      </c>
+      <c r="J466" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>72202</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>DPBT N7A AN // N8B - ID</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>7666</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>41 / 41</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H467" t="n">
+        <v>41</v>
+      </c>
+      <c r="I467" t="n">
+        <v>41</v>
+      </c>
+      <c r="J467" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>72306</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>DPBT N8A ID</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>7666</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>40 / 40</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H468" t="n">
+        <v>40</v>
+      </c>
+      <c r="I468" t="n">
+        <v>40</v>
+      </c>
+      <c r="J468" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>72190</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>D1 N4A AN</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>3924</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>32 / 32</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H469" t="n">
+        <v>32</v>
+      </c>
+      <c r="I469" t="n">
+        <v>32</v>
+      </c>
+      <c r="J469" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>72259</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>D1 N5A ID</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>3924</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>18 / 30</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H470" t="n">
+        <v>18</v>
+      </c>
+      <c r="I470" t="n">
+        <v>30</v>
+      </c>
+      <c r="J470" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>72191</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>D2 N5A AN</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>35 / 35</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H471" t="n">
+        <v>35</v>
+      </c>
+      <c r="I471" t="n">
+        <v>35</v>
+      </c>
+      <c r="J471" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>72850</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>D2 N5B-AN//N6C-ID</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>23 / 30</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H472" t="n">
+        <v>23</v>
+      </c>
+      <c r="I472" t="n">
+        <v>30</v>
+      </c>
+      <c r="J472" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>72277</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>D2 N6A ID</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>26 / 30</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H473" t="n">
+        <v>26</v>
+      </c>
+      <c r="I473" t="n">
+        <v>30</v>
+      </c>
+      <c r="J473" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>72303</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>D2 N6B ID</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>26 / 30</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H474" t="n">
+        <v>26</v>
+      </c>
+      <c r="I474" t="n">
+        <v>30</v>
+      </c>
+      <c r="J474" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>72185</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>FIS N3A AN</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>7669</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>28 / 30</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H475" t="n">
+        <v>28</v>
+      </c>
+      <c r="I475" t="n">
+        <v>30</v>
+      </c>
+      <c r="J475" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>72252</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>FIS N4A ID</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>7669</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>18 / 30</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H476" t="n">
+        <v>18</v>
+      </c>
+      <c r="I476" t="n">
+        <v>30</v>
+      </c>
+      <c r="J476" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>72310</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>HGGPY N9A ID</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>5733</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>36 / 36</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H477" t="n">
+        <v>36</v>
+      </c>
+      <c r="I477" t="n">
+        <v>36</v>
+      </c>
+      <c r="J477" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>72198</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>ISA1 N6A AN</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>7674</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>31 / 31</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H478" t="n">
+        <v>31</v>
+      </c>
+      <c r="I478" t="n">
+        <v>31</v>
+      </c>
+      <c r="J478" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>72281</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>ISA1 N6A ID</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>7674</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>26 / 30</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H479" t="n">
+        <v>26</v>
+      </c>
+      <c r="I479" t="n">
+        <v>30</v>
+      </c>
+      <c r="J479" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>72296</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>ISA2 N7A ID</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>7675</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>29 / 32</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H480" t="n">
+        <v>29</v>
+      </c>
+      <c r="I480" t="n">
+        <v>32</v>
+      </c>
+      <c r="J480" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>72307</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>IHC N8A ID</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>7676</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Interacción humano-computadora</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>36 / 36</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
+      <c r="H481" t="n">
+        <v>36</v>
+      </c>
+      <c r="I481" t="n">
+        <v>36</v>
+      </c>
+      <c r="J481" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>66440</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>ASP - M8A - ID</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>6455</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 /  æ </t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="n">
+        <v>26</v>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J482" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>66442</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>ASP - N8A - ID</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>6455</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 /  æ </t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="n">
+        <v>19</v>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J483" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>66515</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>AR - N7A - ID</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>3851</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arquitectura de software</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 /  æ </t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="n">
+        <v>20</v>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J484" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
+      <c r="M484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>66444</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>DPBT - M8A - ID</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>7666</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 /  æ </t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr"/>
+      <c r="H485" t="n">
+        <v>26</v>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J485" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
+      <c r="M485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>66445</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>DPBT - N8A - ID</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>7666</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 /  æ </t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr"/>
+      <c r="H486" t="n">
+        <v>13</v>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J486" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="inlineStr"/>
+      <c r="M486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>66441</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>DCU - N8A - ID</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>7667</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño centrado en el usuario</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 /  æ </t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="n">
+        <v>7</v>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J487" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
+      <c r="M487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>66499</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>DA2 - M6A - ID</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25 /  æ </t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="n">
+        <v>25</v>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J488" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>66500</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>DA2 - M6B - ID</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 /  æ </t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="n">
+        <v>19</v>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J489" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
+      <c r="M489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>66501</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>DA2 - M6C - ID</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 /  æ </t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="n">
+        <v>18</v>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J490" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
+      <c r="M490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>66502</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>DA2 - N6A - ID</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21 /  æ </t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="n">
+        <v>21</v>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J491" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
+      <c r="M491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>FIS - N4A - ID</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>7669</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 /  æ </t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr"/>
+      <c r="H492" t="n">
+        <v>1</v>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J492" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
+      <c r="M492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>66727</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>HGGPY - N9A - ID</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>5733</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 /  æ </t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="n">
+        <v>30</v>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J493" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>66507</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>ISA1 - M6A - ID</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>7674</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 /  æ </t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="n">
+        <v>24</v>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J494" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
+      <c r="M494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>66508</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>ISA1 - M6B - ID</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>7674</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21 /  æ </t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="n">
+        <v>21</v>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J495" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
+      <c r="M495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>66509</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>ISA1 - M6C - ID</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>7674</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16 /  æ </t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="n">
+        <v>16</v>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J496" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
+      <c r="M496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>66510</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>ISA1 - N6A - ID</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>7674</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 /  æ </t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr"/>
+      <c r="H497" t="n">
+        <v>14</v>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J497" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
+      <c r="M497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>66516</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>ISA2 - N7A - ID</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>7675</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 /  æ </t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr"/>
+      <c r="H498" t="n">
+        <v>20</v>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J498" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
+      <c r="M498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>66443</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>IHC - M8A - ID</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>7676</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Interacción humano-computadora</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25 /  æ </t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="n">
+        <v>25</v>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J499" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
+      <c r="M499" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
